--- a/hydroelectric_power/TD/TD3/hpp template.xlsx
+++ b/hydroelectric_power/TD/TD3/hpp template.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MEAN" sheetId="1" r:id="rId1"/>
     <sheet name="WET" sheetId="3" r:id="rId2"/>
+    <sheet name="DRY" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
   <si>
     <t>[m]</t>
   </si>
@@ -161,12 +162,15 @@
   <si>
     <t>Compensation for the WET year</t>
   </si>
+  <si>
+    <t>Compensation for the DRY year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -215,6 +219,13 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -427,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -437,10 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +475,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,9 +482,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +506,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -847,7 +876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485693720"/>
@@ -909,7 +938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485694704"/>
@@ -950,7 +979,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1002,7 +1031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1285,7 +1314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485693720"/>
@@ -1347,7 +1376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485694704"/>
@@ -1388,7 +1417,445 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DRY!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Denivelation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DRY!$A$12:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DRY!$J$12:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50733354081853577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40163905330052785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94068093964222044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7292919646062046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51790298957030245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3065140145344003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84555590087597921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63416692584007706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42277795080417491</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21138897576827276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53904188707394951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62317469913818968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51748021162029545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD92-416D-85A8-5292350D8B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485694704"/>
+        <c:axId val="485693720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485694704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485693720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485693720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485694704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1440,6 +1907,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2511,6 +3018,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2547,6 +3570,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2882,11 +3942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
@@ -2899,45 +3959,45 @@
     <col min="14" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:24" ht="24.6">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>71</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:24" s="5" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>71</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5"/>
@@ -2962,14 +4022,14 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:24" s="5" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>3600</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D6"/>
@@ -2994,15 +4054,15 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="39.6">
+      <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f>524.75-B5-3.5</f>
         <v>450.25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D7"/>
@@ -3027,50 +4087,50 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="12" t="s">
+    <row r="9" spans="1:24">
+      <c r="Q9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
         <v>22</v>
@@ -3085,33 +4145,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="4"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -3142,14 +4202,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6">
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D12" s="4">
@@ -3169,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" ref="H12:H25" si="0">0.00293595798661*I12+516.681207587491-$B$5</f>
+        <f>0.00293595798661*I12+516.681207587491-$B$5</f>
         <v>450.60936125829335</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" ref="I12:I25" si="1">I13-F13/1000</f>
+        <f t="shared" ref="I12:I25" si="0">I13-F13/1000</f>
         <v>1678.550474250025</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" ref="J12:J25" si="2">H12-$H$27</f>
+        <f t="shared" ref="J12:J25" si="1">H12-$H$27</f>
         <v>0.35936125829334742</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
       </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="13">
+      <c r="N12" s="9">
         <v>0</v>
       </c>
       <c r="O12" s="4"/>
@@ -3198,26 +4258,26 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6">
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:D35" si="3">-N13*$B$6</f>
+        <f t="shared" ref="D13:D35" si="2">-N13*$B$6</f>
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" ref="E13:E35" si="4">-S13</f>
+        <f t="shared" ref="E13:E35" si="3">-S13</f>
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13:F36" si="5">D13+E13</f>
+        <f t="shared" ref="F13:F35" si="4">D13+E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
@@ -3225,15 +4285,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="7">
+        <f t="shared" ref="H12:H25" si="5">0.00293595798661*I13+516.681207587491-$B$5</f>
+        <v>450.60936125829335</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>450.60936125829335</v>
-      </c>
-      <c r="I13" s="7">
+        <v>1678.550474250025</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>1678.550474250025</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
       <c r="L13" s="4">
@@ -3241,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="13">
+      <c r="N13" s="9">
         <v>0</v>
       </c>
       <c r="O13" s="4"/>
@@ -3256,26 +4316,26 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6">
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="14">
         <v>0.125</v>
       </c>
       <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G14" s="7">
@@ -3283,15 +4343,15 @@
         <v>0</v>
       </c>
       <c r="H14" s="7">
+        <f t="shared" si="5"/>
+        <v>450.60936125829335</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>450.60936125829335</v>
-      </c>
-      <c r="I14" s="7">
+        <v>1678.550474250025</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>1678.550474250025</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
       <c r="L14" s="4">
@@ -3299,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="13">
+      <c r="N14" s="9">
         <v>0</v>
       </c>
       <c r="O14" s="4"/>
@@ -3314,26 +4374,26 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6">
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>0.125</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>0.16666666666666699</v>
       </c>
       <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="7">
@@ -3341,15 +4401,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="7">
+        <f t="shared" si="5"/>
+        <v>450.60936125829335</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
-        <v>450.60936125829335</v>
-      </c>
-      <c r="I15" s="7">
+        <v>1678.550474250025</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>1678.550474250025</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
       <c r="L15" s="4">
@@ -3357,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="13">
+      <c r="N15" s="9">
         <v>0</v>
       </c>
       <c r="O15" s="4"/>
@@ -3372,26 +4432,26 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6">
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0.20833333333333401</v>
       </c>
       <c r="D16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G16" s="7">
@@ -3399,15 +4459,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="7">
+        <f t="shared" si="5"/>
+        <v>450.60936125829335</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>450.60936125829335</v>
-      </c>
-      <c r="I16" s="7">
+        <v>1678.550474250025</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>1678.550474250025</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
       <c r="L16" s="4">
@@ -3415,7 +4475,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="13">
+      <c r="N16" s="9">
         <v>0</v>
       </c>
       <c r="O16" s="4"/>
@@ -3430,26 +4490,26 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>0.20833333333333401</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0.25</v>
       </c>
       <c r="D17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -3457,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>450.60936125829335</v>
       </c>
       <c r="I17" s="7">
+        <f>I18-F18/1000</f>
+        <v>1678.550474250025</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>1678.550474250025</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
       <c r="K17"/>
@@ -3474,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="13">
+      <c r="N17" s="9">
         <v>0</v>
       </c>
       <c r="O17" s="4"/>
@@ -3493,26 +4553,26 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>0.25</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="22">
+        <f>-N18*$B$6</f>
+        <v>-46800</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="3"/>
-        <v>-46800</v>
-      </c>
-      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="5"/>
         <v>-46800</v>
       </c>
       <c r="G18" s="7">
@@ -3520,15 +4580,15 @@
         <v>-46800</v>
       </c>
       <c r="H18" s="7">
+        <f t="shared" si="5"/>
+        <v>450.47195842452004</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" si="0"/>
-        <v>450.47195842452004</v>
-      </c>
-      <c r="I18" s="7">
+        <v>1631.750474250025</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>1631.750474250025</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
         <v>0.22195842452003944</v>
       </c>
       <c r="K18"/>
@@ -3537,7 +4597,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="30">
+      <c r="N18" s="23">
         <v>13</v>
       </c>
       <c r="O18" s="4"/>
@@ -3556,26 +4616,26 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>0.33333333333333398</v>
       </c>
       <c r="D19" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E19" s="7">
+        <v>255600</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" si="4"/>
-        <v>255600</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="5"/>
         <v>162000</v>
       </c>
       <c r="G19" s="7">
@@ -3583,15 +4643,15 @@
         <v>115200</v>
       </c>
       <c r="H19" s="7">
+        <f t="shared" si="5"/>
+        <v>450.9475836183509</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
-        <v>450.9475836183509</v>
-      </c>
-      <c r="I19" s="7">
+        <v>1793.750474250025</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>1793.750474250025</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
         <v>0.69758361835090454</v>
       </c>
       <c r="K19"/>
@@ -3600,7 +4660,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="13">
+      <c r="N19" s="9">
         <v>26</v>
       </c>
       <c r="O19" s="4"/>
@@ -3619,26 +4679,26 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <v>0.375</v>
       </c>
       <c r="D20" s="7">
+        <f>-N20*$B$6</f>
+        <v>-93600</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E20" s="7">
+        <v>255600</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="4"/>
-        <v>255600</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="5"/>
         <v>162000</v>
       </c>
       <c r="G20" s="7">
@@ -3646,15 +4706,15 @@
         <v>277200</v>
       </c>
       <c r="H20" s="7">
+        <f t="shared" si="5"/>
+        <v>451.42320881218166</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="0"/>
-        <v>451.42320881218166</v>
-      </c>
-      <c r="I20" s="7">
+        <v>1955.750474250025</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>1955.750474250025</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
         <v>1.173208812181656</v>
       </c>
       <c r="K20"/>
@@ -3663,7 +4723,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="13">
+      <c r="N20" s="9">
         <v>26</v>
       </c>
       <c r="O20" s="4"/>
@@ -3682,26 +4742,26 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>0.375</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>0.41666666666666702</v>
       </c>
       <c r="D21" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
       <c r="G21" s="7">
@@ -3709,15 +4769,15 @@
         <v>183600</v>
       </c>
       <c r="H21" s="7">
+        <f t="shared" si="5"/>
+        <v>451.14840314463504</v>
+      </c>
+      <c r="I21" s="7">
         <f t="shared" si="0"/>
-        <v>451.14840314463504</v>
-      </c>
-      <c r="I21" s="7">
+        <v>1862.1504742500251</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>1862.1504742500251</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="2"/>
         <v>0.89840314463504001</v>
       </c>
       <c r="K21"/>
@@ -3726,7 +4786,7 @@
         <v>10</v>
       </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="13">
+      <c r="N21" s="9">
         <v>26</v>
       </c>
       <c r="O21" s="4"/>
@@ -3745,26 +4805,26 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>0.45833333333333398</v>
       </c>
       <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
       <c r="G22" s="7">
@@ -3772,15 +4832,15 @@
         <v>90000</v>
       </c>
       <c r="H22" s="7">
+        <f t="shared" si="5"/>
+        <v>450.87359747708831</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="0"/>
-        <v>450.87359747708831</v>
-      </c>
-      <c r="I22" s="7">
+        <v>1768.5504742500252</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="1"/>
-        <v>1768.5504742500252</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="2"/>
         <v>0.62359747708831037</v>
       </c>
       <c r="K22"/>
@@ -3789,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="M22" s="4"/>
-      <c r="N22" s="13">
+      <c r="N22" s="9">
         <v>26</v>
       </c>
       <c r="O22" s="4"/>
@@ -3808,26 +4868,26 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A23" s="4">
         <v>12</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>0.5</v>
       </c>
       <c r="D23" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E23" s="7">
+        <v>255600</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="4"/>
-        <v>255600</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="5"/>
         <v>162000</v>
       </c>
       <c r="G23" s="7">
@@ -3835,15 +4895,15 @@
         <v>252000</v>
       </c>
       <c r="H23" s="7">
+        <f t="shared" si="5"/>
+        <v>451.34922267091906</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="0"/>
-        <v>451.34922267091906</v>
-      </c>
-      <c r="I23" s="7">
+        <v>1930.5504742500252</v>
+      </c>
+      <c r="J23" s="7">
         <f t="shared" si="1"/>
-        <v>1930.5504742500252</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="2"/>
         <v>1.0992226709190618</v>
       </c>
       <c r="K23"/>
@@ -3852,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" s="13">
+      <c r="N23" s="9">
         <v>26</v>
       </c>
       <c r="O23" s="4"/>
@@ -3871,26 +4931,26 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A24" s="4">
         <v>13</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="14">
         <v>0.5</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="14">
         <v>0.54166666666666696</v>
       </c>
       <c r="D24" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
       <c r="G24" s="7">
@@ -3898,15 +4958,15 @@
         <v>158400</v>
       </c>
       <c r="H24" s="7">
+        <f t="shared" si="5"/>
+        <v>451.07441700337245</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="0"/>
-        <v>451.07441700337245</v>
-      </c>
-      <c r="I24" s="7">
+        <v>1836.9504742500253</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="1"/>
-        <v>1836.9504742500253</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="2"/>
         <v>0.82441700337244583</v>
       </c>
       <c r="K24"/>
@@ -3915,7 +4975,7 @@
         <v>13</v>
       </c>
       <c r="M24" s="4"/>
-      <c r="N24" s="13">
+      <c r="N24" s="9">
         <v>26</v>
       </c>
       <c r="O24" s="4"/>
@@ -3934,26 +4994,26 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A25" s="4">
         <v>14</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="14">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="14">
         <v>0.58333333333333404</v>
       </c>
       <c r="D25" s="7">
+        <f>-N25*$B$6</f>
+        <v>-93600</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
       <c r="G25" s="7">
@@ -3961,15 +5021,15 @@
         <v>64800</v>
       </c>
       <c r="H25" s="7">
+        <f t="shared" si="5"/>
+        <v>450.79961133582572</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
-        <v>450.79961133582572</v>
-      </c>
-      <c r="I25" s="7">
+        <v>1743.3504742500254</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="1"/>
-        <v>1743.3504742500254</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="2"/>
         <v>0.5496113358257162</v>
       </c>
       <c r="K25"/>
@@ -3978,7 +5038,7 @@
         <v>14</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="13">
+      <c r="N25" s="9">
         <v>26</v>
       </c>
       <c r="O25" s="4"/>
@@ -3997,26 +5057,26 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A26" s="4">
         <v>15</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>0.625</v>
       </c>
       <c r="D26" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
       <c r="G26" s="7">
@@ -4041,7 +5101,7 @@
         <v>15</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="13">
+      <c r="N26" s="9">
         <v>26</v>
       </c>
       <c r="O26" s="4"/>
@@ -4060,41 +5120,41 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A27" s="4">
         <v>16</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>0.625</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <v>0.66666666666666696</v>
       </c>
       <c r="D27" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="4"/>
         <v>-93600</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="5"/>
-        <v>-93600</v>
-      </c>
-      <c r="G27" s="32">
+      <c r="G27" s="25">
         <f t="shared" si="8"/>
         <v>-122400</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="27">
         <f>B7</f>
         <v>450.25</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="27">
         <f xml:space="preserve"> (340.604329)*(H27+$B$5-73)-151119.74</f>
         <v>1556.1504742500256</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="27">
         <v>0</v>
       </c>
       <c r="K27"/>
@@ -4103,7 +5163,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="13">
+      <c r="N27" s="9">
         <v>26</v>
       </c>
       <c r="O27" s="4"/>
@@ -4122,26 +5182,26 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A28" s="4">
         <v>17</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="14">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="14">
         <v>0.70833333333333404</v>
       </c>
       <c r="D28" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E28" s="7">
+        <v>255600</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" si="4"/>
-        <v>255600</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="5"/>
         <v>162000</v>
       </c>
       <c r="G28" s="7">
@@ -4166,7 +5226,7 @@
         <v>17</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="13">
+      <c r="N28" s="9">
         <v>26</v>
       </c>
       <c r="O28" s="4"/>
@@ -4185,26 +5245,26 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A29" s="4">
         <v>18</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="14">
         <v>0.75</v>
       </c>
       <c r="D29" s="7">
+        <f t="shared" si="2"/>
+        <v>-93600</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>-93600</v>
-      </c>
-      <c r="E29" s="7">
+        <v>100800</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="4"/>
-        <v>100800</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
       <c r="G29" s="7">
@@ -4229,7 +5289,7 @@
         <v>18</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="N29" s="13">
+      <c r="N29" s="9">
         <v>26</v>
       </c>
       <c r="O29" s="4"/>
@@ -4248,26 +5308,26 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A30" s="4">
         <v>19</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="14">
         <v>0.75</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="22">
+        <f t="shared" si="2"/>
+        <v>-46800</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>-46800</v>
-      </c>
-      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="5"/>
         <v>-46800</v>
       </c>
       <c r="G30" s="7">
@@ -4283,7 +5343,7 @@
         <v>1678.5504742500257</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="10"/>
+        <f>H30-$H$27</f>
         <v>0.35936125829334742</v>
       </c>
       <c r="K30"/>
@@ -4292,7 +5352,7 @@
         <v>19</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="30">
+      <c r="N30" s="23">
         <v>13</v>
       </c>
       <c r="O30" s="4"/>
@@ -4311,26 +5371,26 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A31" s="4">
         <v>20</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="14">
         <v>0.83333333333333404</v>
       </c>
       <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="7">
@@ -4355,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="13">
+      <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31" s="4"/>
@@ -4374,26 +5434,26 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A32" s="4">
         <v>21</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="14">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="14">
         <v>0.875</v>
       </c>
       <c r="D32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="7">
@@ -4418,7 +5478,7 @@
         <v>21</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="13">
+      <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="4"/>
@@ -4437,26 +5497,26 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A33" s="4">
         <v>22</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="14">
         <v>0.875</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="14">
         <v>0.91666666666666696</v>
       </c>
       <c r="D33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F33" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="7">
@@ -4481,7 +5541,7 @@
         <v>22</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="13">
+      <c r="N33" s="9">
         <v>0</v>
       </c>
       <c r="O33" s="4"/>
@@ -4500,26 +5560,26 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A34" s="4">
         <v>23</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="14">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="14">
         <v>0.95833333333333404</v>
       </c>
       <c r="D34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34" s="7">
@@ -4544,7 +5604,7 @@
         <v>23</v>
       </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="13">
+      <c r="N34" s="9">
         <v>0</v>
       </c>
       <c r="O34" s="4"/>
@@ -4563,26 +5623,26 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" s="1" customFormat="1" ht="16.2" thickBot="1">
       <c r="A35" s="4">
         <v>24</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>0.95833333333333404</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="15">
         <v>1</v>
       </c>
       <c r="D35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G35" s="7">
@@ -4607,7 +5667,7 @@
         <v>24</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="13">
+      <c r="N35" s="9">
         <v>0</v>
       </c>
       <c r="O35" s="4"/>
@@ -4626,20 +5686,20 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="31">
+      <c r="D36" s="24">
         <f>SUM(D12:D35)</f>
         <v>-1123200</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="24">
         <f>SUM(E12:E35)</f>
         <v>1123200</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="31">
+      <c r="G36" s="24">
         <f>MIN(G12:G35)</f>
         <v>-122400</v>
       </c>
@@ -4661,7 +5721,7 @@
       <c r="W36"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -4672,10 +5732,10 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3">
         <f>AVERAGE(N12:N35)</f>
@@ -4692,7 +5752,7 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="1" customFormat="1">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -4718,7 +5778,7 @@
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="1" customFormat="1">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4744,18 +5804,18 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="1" customFormat="1">
       <c r="A41" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
       <c r="H41" t="s">
         <v>15</v>
       </c>
@@ -4776,18 +5836,18 @@
       <c r="W41"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="1" customFormat="1">
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" t="s">
         <v>13</v>
       </c>
@@ -4808,18 +5868,18 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="1" customFormat="1">
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
       <c r="H43" t="s">
         <v>7</v>
       </c>
@@ -4840,18 +5900,18 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="1" customFormat="1">
       <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
       <c r="H44" t="s">
         <v>7</v>
       </c>
@@ -4872,18 +5932,18 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="1" customFormat="1">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" t="s">
         <v>7</v>
       </c>
@@ -4904,18 +5964,18 @@
       <c r="W45"/>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="1" customFormat="1">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
       <c r="H46" t="s">
         <v>5</v>
       </c>
@@ -4936,18 +5996,18 @@
       <c r="W46"/>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" s="1" customFormat="1">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" t="s">
         <v>3</v>
       </c>
@@ -4968,18 +6028,18 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="1" customFormat="1">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
       <c r="H48" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +6060,7 @@
       <c r="W48"/>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="1" customFormat="1">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -5054,11 +6114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="6" customWidth="1"/>
@@ -5074,44 +6134,44 @@
     <col min="16" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:24" ht="24.6">
+      <c r="A1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>71</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:24" s="5" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>71</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
@@ -5136,14 +6196,14 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:24" s="5" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>3600</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="6"/>
@@ -5168,15 +6228,15 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="39.6">
+      <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f>524.75-B5-3.5</f>
         <v>450.25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
@@ -5201,129 +6261,129 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="12" t="s">
+    <row r="9" spans="1:24">
+      <c r="Q9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="13.8" thickBot="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="28" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="28" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D12" s="7">
@@ -5350,36 +6410,36 @@
         <f t="shared" ref="I12:I25" si="1">I13-F13/1000</f>
         <v>1819.8504742500249</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="26">
         <f t="shared" ref="J12:J25" si="2">H12-$H$27</f>
         <v>0.77421212180138355</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="35"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="28"/>
       <c r="Q12" s="7">
         <v>1</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R12" s="28"/>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6">
       <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="7">
@@ -5406,7 +6466,7 @@
         <f t="shared" si="1"/>
         <v>1791.590474250025</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="26">
         <f t="shared" si="2"/>
         <v>0.69124194909977632</v>
       </c>
@@ -5414,30 +6474,30 @@
         <f t="shared" ref="L13:L35" si="6">L12+1</f>
         <v>2</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="13">
+      <c r="M13" s="28"/>
+      <c r="N13" s="9">
         <v>7.85</v>
       </c>
-      <c r="O13" s="35"/>
+      <c r="O13" s="28"/>
       <c r="Q13" s="7">
         <f t="shared" ref="Q13:Q35" si="7">Q12+1</f>
         <v>2</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="15">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R13" s="28"/>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.6">
       <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="14">
         <v>0.125</v>
       </c>
       <c r="D14" s="7">
@@ -5464,7 +6524,7 @@
         <f t="shared" si="1"/>
         <v>1763.330474250025</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="26">
         <f t="shared" si="2"/>
         <v>0.6082717763981691</v>
       </c>
@@ -5472,30 +6532,30 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="13">
+      <c r="M14" s="28"/>
+      <c r="N14" s="9">
         <v>7.85</v>
       </c>
-      <c r="O14" s="35"/>
+      <c r="O14" s="28"/>
       <c r="Q14" s="7">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="15">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R14" s="28"/>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.6">
       <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>0.125</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>0.16666666666666699</v>
       </c>
       <c r="D15" s="7">
@@ -5522,7 +6582,7 @@
         <f t="shared" si="1"/>
         <v>1735.070474250025</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="26">
         <f t="shared" si="2"/>
         <v>0.52530160369656187</v>
       </c>
@@ -5530,30 +6590,30 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="13">
+      <c r="M15" s="28"/>
+      <c r="N15" s="9">
         <v>7.85</v>
       </c>
-      <c r="O15" s="35"/>
+      <c r="O15" s="28"/>
       <c r="Q15" s="7">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R15" s="28"/>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6">
       <c r="A16" s="7">
         <v>5</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0.20833333333333401</v>
       </c>
       <c r="D16" s="7">
@@ -5580,7 +6640,7 @@
         <f t="shared" si="1"/>
         <v>1706.810474250025</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="26">
         <f t="shared" si="2"/>
         <v>0.44233143099495464</v>
       </c>
@@ -5588,30 +6648,30 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="13">
+      <c r="M16" s="28"/>
+      <c r="N16" s="9">
         <v>7.85</v>
       </c>
-      <c r="O16" s="35"/>
+      <c r="O16" s="28"/>
       <c r="Q16" s="7">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="15">
-        <v>0</v>
-      </c>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-    </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R16" s="28"/>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+    </row>
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="7">
         <v>6</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>0.20833333333333401</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0.25</v>
       </c>
       <c r="D17" s="7">
@@ -5638,7 +6698,7 @@
         <f t="shared" si="1"/>
         <v>1678.550474250025</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="26">
         <f t="shared" si="2"/>
         <v>0.35936125829334742</v>
       </c>
@@ -5647,37 +6707,37 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="13">
+      <c r="M17" s="28"/>
+      <c r="N17" s="9">
         <v>7.85</v>
       </c>
-      <c r="O17" s="35"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="7">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A18" s="7">
         <v>7</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>0.25</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="22">
         <f t="shared" si="3"/>
         <v>-46800</v>
       </c>
@@ -5701,7 +6761,7 @@
         <f t="shared" si="1"/>
         <v>1631.750474250025</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="26">
         <f t="shared" si="2"/>
         <v>0.22195842452003944</v>
       </c>
@@ -5710,34 +6770,34 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="13">
+      <c r="M18" s="28"/>
+      <c r="N18" s="9">
         <v>13</v>
       </c>
-      <c r="O18" s="35"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="15">
-        <v>0</v>
-      </c>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="7">
         <v>8</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>0.33333333333333398</v>
       </c>
       <c r="D19" s="7">
@@ -5764,7 +6824,7 @@
         <f t="shared" si="1"/>
         <v>1793.750474250025</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="26">
         <f t="shared" si="2"/>
         <v>0.69758361835090454</v>
       </c>
@@ -5773,34 +6833,34 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="13">
+      <c r="M19" s="28"/>
+      <c r="N19" s="9">
         <v>26</v>
       </c>
-      <c r="O19" s="35"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="15">
+      <c r="R19" s="28"/>
+      <c r="S19" s="11">
         <v>-255600</v>
       </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A20" s="7">
         <v>9</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <v>0.375</v>
       </c>
       <c r="D20" s="7">
@@ -5827,7 +6887,7 @@
         <f t="shared" si="1"/>
         <v>1955.750474250025</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="26">
         <f t="shared" si="2"/>
         <v>1.173208812181656</v>
       </c>
@@ -5836,34 +6896,34 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="13">
+      <c r="M20" s="28"/>
+      <c r="N20" s="9">
         <v>26</v>
       </c>
-      <c r="O20" s="35"/>
+      <c r="O20" s="28"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="7">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="15">
+      <c r="R20" s="28"/>
+      <c r="S20" s="11">
         <v>-255600</v>
       </c>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A21" s="7">
         <v>10</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>0.375</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>0.41666666666666702</v>
       </c>
       <c r="D21" s="7">
@@ -5890,7 +6950,7 @@
         <f t="shared" si="1"/>
         <v>1862.1504742500251</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="26">
         <f t="shared" si="2"/>
         <v>0.89840314463504001</v>
       </c>
@@ -5899,34 +6959,34 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="13">
+      <c r="M21" s="28"/>
+      <c r="N21" s="9">
         <v>26</v>
       </c>
-      <c r="O21" s="35"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="15">
-        <v>0</v>
-      </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A22" s="7">
         <v>11</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>0.45833333333333398</v>
       </c>
       <c r="D22" s="7">
@@ -5953,7 +7013,7 @@
         <f t="shared" si="1"/>
         <v>1768.5504742500252</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="26">
         <f t="shared" si="2"/>
         <v>0.62359747708831037</v>
       </c>
@@ -5962,34 +7022,34 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="13">
+      <c r="M22" s="28"/>
+      <c r="N22" s="9">
         <v>26</v>
       </c>
-      <c r="O22" s="35"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="R22" s="35"/>
-      <c r="S22" s="15">
-        <v>0</v>
-      </c>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A23" s="7">
         <v>12</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>0.5</v>
       </c>
       <c r="D23" s="7">
@@ -6016,7 +7076,7 @@
         <f t="shared" si="1"/>
         <v>1930.5504742500252</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
         <v>1.0992226709190618</v>
       </c>
@@ -6025,34 +7085,34 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="13">
+      <c r="M23" s="28"/>
+      <c r="N23" s="9">
         <v>26</v>
       </c>
-      <c r="O23" s="35"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="15">
+      <c r="R23" s="28"/>
+      <c r="S23" s="11">
         <v>-255600</v>
       </c>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A24" s="7">
         <v>13</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="14">
         <v>0.5</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="14">
         <v>0.54166666666666696</v>
       </c>
       <c r="D24" s="7">
@@ -6079,7 +7139,7 @@
         <f t="shared" si="1"/>
         <v>1836.9504742500253</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="26">
         <f t="shared" si="2"/>
         <v>0.82441700337244583</v>
       </c>
@@ -6088,34 +7148,34 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="13">
+      <c r="M24" s="28"/>
+      <c r="N24" s="9">
         <v>26</v>
       </c>
-      <c r="O24" s="35"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="7">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="15">
-        <v>0</v>
-      </c>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="11">
+        <v>0</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A25" s="7">
         <v>14</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="14">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="14">
         <v>0.58333333333333404</v>
       </c>
       <c r="D25" s="7">
@@ -6142,7 +7202,7 @@
         <f t="shared" si="1"/>
         <v>1743.3504742500254</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="26">
         <f t="shared" si="2"/>
         <v>0.5496113358257162</v>
       </c>
@@ -6151,34 +7211,34 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="13">
+      <c r="M25" s="28"/>
+      <c r="N25" s="9">
         <v>26</v>
       </c>
-      <c r="O25" s="35"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="R25" s="35"/>
-      <c r="S25" s="15">
-        <v>0</v>
-      </c>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A26" s="7">
         <v>15</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>0.625</v>
       </c>
       <c r="D26" s="7">
@@ -6205,7 +7265,7 @@
         <f>I27-F27/1000</f>
         <v>1649.7504742500255</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="26">
         <f>H26-$H$27</f>
         <v>0.27480566827898656</v>
       </c>
@@ -6214,34 +7274,34 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="13">
+      <c r="M26" s="28"/>
+      <c r="N26" s="9">
         <v>26</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="7">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="R26" s="35"/>
-      <c r="S26" s="15">
-        <v>0</v>
-      </c>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="11">
+        <v>0</v>
+      </c>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A27" s="7">
         <v>16</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>0.625</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <v>0.66666666666666696</v>
       </c>
       <c r="D27" s="7">
@@ -6256,19 +7316,19 @@
         <f t="shared" si="5"/>
         <v>-93600</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="25">
         <f t="shared" si="8"/>
         <v>-263700</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="32">
         <f>B7</f>
         <v>450.25</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="27">
         <f xml:space="preserve"> (340.604329)*(H27+$B$5-73)-151119.74</f>
         <v>1556.1504742500256</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="32">
         <v>0</v>
       </c>
       <c r="K27" s="6"/>
@@ -6276,34 +7336,34 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="13">
+      <c r="M27" s="28"/>
+      <c r="N27" s="9">
         <v>26</v>
       </c>
-      <c r="O27" s="35"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="R27" s="35"/>
-      <c r="S27" s="15">
-        <v>0</v>
-      </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A28" s="7">
         <v>17</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="14">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="14">
         <v>0.70833333333333404</v>
       </c>
       <c r="D28" s="7">
@@ -6330,7 +7390,7 @@
         <f>I27+F28/1000</f>
         <v>1718.1504742500256</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="26">
         <f>H28-$H$27</f>
         <v>0.47562519456312202</v>
       </c>
@@ -6339,34 +7399,34 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="13">
+      <c r="M28" s="28"/>
+      <c r="N28" s="9">
         <v>26</v>
       </c>
-      <c r="O28" s="35"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="7">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="15">
+      <c r="R28" s="28"/>
+      <c r="S28" s="11">
         <v>-255600</v>
       </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A29" s="7">
         <v>18</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="14">
         <v>0.75</v>
       </c>
       <c r="D29" s="7">
@@ -6393,7 +7453,7 @@
         <f t="shared" ref="I29:I35" si="10">I28+F29/1000</f>
         <v>1880.1504742500256</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="26">
         <f t="shared" ref="J29:J35" si="11">H29-$H$27</f>
         <v>0.95125038839398712</v>
       </c>
@@ -6402,37 +7462,37 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="13">
+      <c r="M29" s="28"/>
+      <c r="N29" s="9">
         <v>26</v>
       </c>
-      <c r="O29" s="35"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="7">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="R29" s="35"/>
-      <c r="S29" s="36">
+      <c r="R29" s="28"/>
+      <c r="S29" s="29">
         <v>-255600</v>
       </c>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A30" s="7">
         <v>19</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="14">
         <v>0.75</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="22">
         <f t="shared" si="3"/>
         <v>-46800</v>
       </c>
@@ -6456,7 +7516,7 @@
         <f t="shared" si="10"/>
         <v>1989.5904742500259</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="26">
         <f t="shared" si="11"/>
         <v>1.2725616304485357</v>
       </c>
@@ -6465,34 +7525,34 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="13">
+      <c r="M30" s="28"/>
+      <c r="N30" s="9">
         <v>13</v>
       </c>
-      <c r="O30" s="35"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="7">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="R30" s="35"/>
-      <c r="S30" s="16">
+      <c r="R30" s="28"/>
+      <c r="S30" s="12">
         <v>-156240.00000000023</v>
       </c>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
     </row>
-    <row r="31" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A31" s="7">
         <v>20</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="14">
         <v>0.83333333333333404</v>
       </c>
       <c r="D31" s="7">
@@ -6519,7 +7579,7 @@
         <f t="shared" si="10"/>
         <v>1961.3304742500259</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="26">
         <f t="shared" si="11"/>
         <v>1.1895914577469284</v>
       </c>
@@ -6528,34 +7588,34 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="13">
+      <c r="M31" s="28"/>
+      <c r="N31" s="9">
         <v>7.85</v>
       </c>
-      <c r="O31" s="35"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="7">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="15">
-        <v>0</v>
-      </c>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
     </row>
-    <row r="32" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A32" s="7">
         <v>21</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="14">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="14">
         <v>0.875</v>
       </c>
       <c r="D32" s="7">
@@ -6582,7 +7642,7 @@
         <f t="shared" si="10"/>
         <v>1933.0704742500259</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="26">
         <f t="shared" si="11"/>
         <v>1.1066212850453212</v>
       </c>
@@ -6591,34 +7651,34 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="13">
+      <c r="M32" s="28"/>
+      <c r="N32" s="9">
         <v>7.85</v>
       </c>
-      <c r="O32" s="35"/>
+      <c r="O32" s="28"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="7">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="15">
-        <v>0</v>
-      </c>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="11">
+        <v>0</v>
+      </c>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A33" s="7">
         <v>22</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="14">
         <v>0.875</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="14">
         <v>0.91666666666666696</v>
       </c>
       <c r="D33" s="7">
@@ -6645,7 +7705,7 @@
         <f t="shared" si="10"/>
         <v>1904.8104742500259</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="26">
         <f t="shared" si="11"/>
         <v>1.0236511123438277</v>
       </c>
@@ -6654,34 +7714,34 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="13">
+      <c r="M33" s="28"/>
+      <c r="N33" s="9">
         <v>7.85</v>
       </c>
-      <c r="O33" s="35"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="7">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="R33" s="35"/>
-      <c r="S33" s="15">
-        <v>0</v>
-      </c>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="11">
+        <v>0</v>
+      </c>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="1" customFormat="1" ht="15.6">
       <c r="A34" s="7">
         <v>23</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="14">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="14">
         <v>0.95833333333333404</v>
       </c>
       <c r="D34" s="7">
@@ -6708,7 +7768,7 @@
         <f t="shared" si="10"/>
         <v>1876.5504742500259</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="26">
         <f t="shared" si="11"/>
         <v>0.94068093964222044</v>
       </c>
@@ -6717,34 +7777,34 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="M34" s="35"/>
-      <c r="N34" s="13">
+      <c r="M34" s="28"/>
+      <c r="N34" s="9">
         <v>7.85</v>
       </c>
-      <c r="O34" s="35"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="7">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="R34" s="35"/>
-      <c r="S34" s="15">
-        <v>0</v>
-      </c>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" s="1" customFormat="1" ht="16.2" thickBot="1">
       <c r="A35" s="7">
         <v>24</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>0.95833333333333404</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="15">
         <v>1</v>
       </c>
       <c r="D35" s="7">
@@ -6771,7 +7831,7 @@
         <f t="shared" si="10"/>
         <v>1848.2904742500259</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="26">
         <f t="shared" si="11"/>
         <v>0.85771076694061321</v>
       </c>
@@ -6780,42 +7840,42 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="13">
+      <c r="M35" s="28"/>
+      <c r="N35" s="9">
         <v>7.85</v>
       </c>
-      <c r="O35" s="35"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="7">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="R35" s="35"/>
-      <c r="S35" s="17">
-        <v>0</v>
-      </c>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="13">
+        <v>0</v>
+      </c>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="31">
+      <c r="D36" s="24">
         <f>SUM(D12:D35)</f>
         <v>-1405800</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="24">
         <f>SUM(E12:E35)</f>
         <v>1434240.0000000002</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="30">
         <f>MIN(G12:G35)</f>
         <v>-263700</v>
       </c>
@@ -6837,7 +7897,7 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -6848,10 +7908,10 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8">
         <f>AVERAGE(N12:N35)</f>
@@ -6868,7 +7928,7 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="1" customFormat="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6894,7 +7954,7 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="1" customFormat="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -6920,18 +7980,18 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="1" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="6" t="s">
         <v>15</v>
       </c>
@@ -6952,18 +8012,18 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="1" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="6" t="s">
         <v>13</v>
       </c>
@@ -6984,18 +8044,18 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="1" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="6" t="s">
         <v>7</v>
       </c>
@@ -7016,18 +8076,18 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="1" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
       <c r="H44" s="6" t="s">
         <v>7</v>
       </c>
@@ -7048,18 +8108,18 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="6" t="s">
         <v>7</v>
       </c>
@@ -7080,18 +8140,18 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="6" t="s">
         <v>5</v>
       </c>
@@ -7112,18 +8172,18 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="6" t="s">
         <v>3</v>
       </c>
@@ -7144,18 +8204,18 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="1" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="6" t="s">
         <v>0</v>
       </c>
@@ -7176,7 +8236,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="1" customFormat="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -7212,6 +8272,2181 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B46:G46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="L10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="36" customWidth="1"/>
+    <col min="2" max="3" width="9" style="36" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="36"/>
+    <col min="7" max="7" width="13.33203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="36"/>
+    <col min="13" max="13" width="15.5546875" style="36" customWidth="1"/>
+    <col min="14" max="15" width="14.6640625" style="36" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="24.6">
+      <c r="A1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16">
+        <v>71</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="5" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="16">
+        <v>71</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1">
+      <c r="A6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16">
+        <v>3600</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="39.6">
+      <c r="A7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="47">
+        <f>524.75-B5-3.5</f>
+        <v>450.25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="Q9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13.8" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.6">
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D12" s="33">
+        <f>-N12*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="33">
+        <f>-S12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
+        <f>D12+E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" ref="H12:H25" si="0">0.00293595798661*I12+516.681207587491-$B$5</f>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" ref="I12:I25" si="1">I13-F13/1000</f>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J12" s="26">
+        <f t="shared" ref="J12:J25" si="2">H12-$H$27</f>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="Q12" s="33">
+        <v>1</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="44">
+        <v>0</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6">
+      <c r="A13" s="33">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" ref="D13:D35" si="3">-N13*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" ref="E13:E35" si="4">-S13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" ref="F13:F35" si="5">D13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <f>F13+G12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="0"/>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="1"/>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J13" s="26">
+        <f t="shared" si="2"/>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="L13" s="33">
+        <f t="shared" ref="L13:L35" si="6">L12+1</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="Q13" s="33">
+        <f t="shared" ref="Q13:Q35" si="7">Q12+1</f>
+        <v>2</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="45">
+        <v>0</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.6">
+      <c r="A14" s="33">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" ref="G14:G35" si="8">F14+G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="0"/>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="1"/>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="2"/>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="L14" s="33">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="Q14" s="33">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="45">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.6">
+      <c r="A15" s="33">
+        <v>4</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="0"/>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="1"/>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="2"/>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="Q15" s="33">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="45">
+        <v>0</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6">
+      <c r="A16" s="33">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="D16" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="0"/>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="1"/>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="L16" s="33">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="Q16" s="33">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="45">
+        <v>0</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+    </row>
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A17" s="33">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="33">
+        <f t="shared" si="0"/>
+        <v>450.75733354081854</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="1"/>
+        <v>1728.9504742500258</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.50733354081853577</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="33">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="33">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="45">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A18" s="33">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="3"/>
+        <v>-36000</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="5"/>
+        <v>-36000</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="8"/>
+        <v>-36000</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" si="0"/>
+        <v>450.65163905330053</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="1"/>
+        <v>1692.9504742500258</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="2"/>
+        <v>0.40163905330052785</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="33">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="23">
+        <v>10</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="33">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="45">
+        <v>0</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+    </row>
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A19" s="33">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="4"/>
+        <v>255600</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="5"/>
+        <v>183600</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="8"/>
+        <v>147600</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" si="0"/>
+        <v>451.19068093964222</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="1"/>
+        <v>1876.5504742500257</v>
+      </c>
+      <c r="J19" s="26">
+        <f t="shared" si="2"/>
+        <v>0.94068093964222044</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="33">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="9">
+        <v>20</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="33">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R19" s="28"/>
+      <c r="S19" s="45">
+        <v>-255600</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+    </row>
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A20" s="33">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="8"/>
+        <v>75600</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="0"/>
+        <v>450.9792919646062</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="1"/>
+        <v>1804.5504742500257</v>
+      </c>
+      <c r="J20" s="26">
+        <f t="shared" si="2"/>
+        <v>0.7292919646062046</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="33">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="9">
+        <v>20</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="33">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="R20" s="28"/>
+      <c r="S20" s="45">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A21" s="33">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="8"/>
+        <v>3600</v>
+      </c>
+      <c r="H21" s="33">
+        <f t="shared" si="0"/>
+        <v>450.7679029895703</v>
+      </c>
+      <c r="I21" s="33">
+        <f t="shared" si="1"/>
+        <v>1732.5504742500257</v>
+      </c>
+      <c r="J21" s="26">
+        <f t="shared" si="2"/>
+        <v>0.51790298957030245</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="33">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="9">
+        <v>20</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="33">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="R21" s="28"/>
+      <c r="S21" s="45">
+        <v>0</v>
+      </c>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+    </row>
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A22" s="33">
+        <v>11</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="8"/>
+        <v>-68400</v>
+      </c>
+      <c r="H22" s="33">
+        <f t="shared" si="0"/>
+        <v>450.5565140145344</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="1"/>
+        <v>1660.5504742500257</v>
+      </c>
+      <c r="J22" s="26">
+        <f t="shared" si="2"/>
+        <v>0.3065140145344003</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="33">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="9">
+        <v>20</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="33">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="S22" s="45">
+        <v>0</v>
+      </c>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+    </row>
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A23" s="33">
+        <v>12</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="4"/>
+        <v>255600</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="5"/>
+        <v>183600</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="8"/>
+        <v>115200</v>
+      </c>
+      <c r="H23" s="33">
+        <f t="shared" si="0"/>
+        <v>451.09555590087598</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" si="1"/>
+        <v>1844.1504742500256</v>
+      </c>
+      <c r="J23" s="26">
+        <f t="shared" si="2"/>
+        <v>0.84555590087597921</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="33">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="9">
+        <v>20</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="33">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="R23" s="28"/>
+      <c r="S23" s="45">
+        <v>-255600</v>
+      </c>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A24" s="33">
+        <v>13</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E24" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="8"/>
+        <v>43200</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" si="0"/>
+        <v>450.88416692584008</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="1"/>
+        <v>1772.1504742500256</v>
+      </c>
+      <c r="J24" s="26">
+        <f t="shared" si="2"/>
+        <v>0.63416692584007706</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="33">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="9">
+        <v>20</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="33">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="R24" s="28"/>
+      <c r="S24" s="45">
+        <v>0</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A25" s="33">
+        <v>14</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="D25" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="8"/>
+        <v>-28800</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="0"/>
+        <v>450.67277795080417</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="1"/>
+        <v>1700.1504742500256</v>
+      </c>
+      <c r="J25" s="26">
+        <f t="shared" si="2"/>
+        <v>0.42277795080417491</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="33">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="9">
+        <v>20</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="33">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R25" s="28"/>
+      <c r="S25" s="45">
+        <v>0</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+    </row>
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A26" s="33">
+        <v>15</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="8"/>
+        <v>-100800</v>
+      </c>
+      <c r="H26" s="33">
+        <f>0.00293595798661*I26+516.681207587491-$B$5</f>
+        <v>450.46138897576827</v>
+      </c>
+      <c r="I26" s="33">
+        <f>I27-F27/1000</f>
+        <v>1628.1504742500256</v>
+      </c>
+      <c r="J26" s="26">
+        <f>H26-$H$27</f>
+        <v>0.21138897576827276</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="33">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="9">
+        <v>20</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="33">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="28"/>
+      <c r="S26" s="45">
+        <v>0</v>
+      </c>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+    </row>
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A27" s="33">
+        <v>16</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="5"/>
+        <v>-72000</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="8"/>
+        <v>-172800</v>
+      </c>
+      <c r="H27" s="32">
+        <f>B7</f>
+        <v>450.25</v>
+      </c>
+      <c r="I27" s="27">
+        <f xml:space="preserve"> (340.604329)*(H27+$B$5-73)-151119.74</f>
+        <v>1556.1504742500256</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="33">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="9">
+        <v>20</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="33">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="R27" s="28"/>
+      <c r="S27" s="45">
+        <v>0</v>
+      </c>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+    </row>
+    <row r="28" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A28" s="33">
+        <v>17</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="4"/>
+        <v>255600</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="5"/>
+        <v>183600</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="8"/>
+        <v>10800</v>
+      </c>
+      <c r="H28" s="33">
+        <f>0.00293595798661*I28+516.681207587491-$B$5</f>
+        <v>450.78904188707395</v>
+      </c>
+      <c r="I28" s="33">
+        <f>I27+F28/1000</f>
+        <v>1739.7504742500255</v>
+      </c>
+      <c r="J28" s="26">
+        <f>H28-$H$27</f>
+        <v>0.53904188707394951</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="33">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="9">
+        <v>20</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="33">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="R28" s="28"/>
+      <c r="S28" s="45">
+        <v>-255600</v>
+      </c>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A29" s="33">
+        <v>18</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="33">
+        <f t="shared" si="3"/>
+        <v>-72000</v>
+      </c>
+      <c r="E29" s="33">
+        <f t="shared" si="4"/>
+        <v>100656</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="5"/>
+        <v>28656</v>
+      </c>
+      <c r="G29" s="33">
+        <f t="shared" si="8"/>
+        <v>39456</v>
+      </c>
+      <c r="H29" s="33">
+        <f t="shared" ref="H29:H35" si="9">0.00293595798661*I29+516.681207587491-$B$5</f>
+        <v>450.87317469913819</v>
+      </c>
+      <c r="I29" s="33">
+        <f t="shared" ref="I29:I35" si="10">I28+F29/1000</f>
+        <v>1768.4064742500254</v>
+      </c>
+      <c r="J29" s="26">
+        <f t="shared" ref="J29:J35" si="11">H29-$H$27</f>
+        <v>0.62317469913818968</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="33">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="9">
+        <v>20</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="33">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="R29" s="28"/>
+      <c r="S29" s="45">
+        <v>-100656</v>
+      </c>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+    </row>
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A30" s="33">
+        <v>19</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D30" s="22">
+        <f t="shared" si="3"/>
+        <v>-36000</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="5"/>
+        <v>-36000</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I30" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J30" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="33">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="23">
+        <v>10</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="33">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="R30" s="28"/>
+      <c r="S30" s="45">
+        <v>0</v>
+      </c>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+    </row>
+    <row r="31" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A31" s="33">
+        <v>20</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I31" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J31" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="33">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="33">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="R31" s="28"/>
+      <c r="S31" s="45">
+        <v>0</v>
+      </c>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+    </row>
+    <row r="32" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A32" s="33">
+        <v>21</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J32" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="33">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="33">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="45">
+        <v>0</v>
+      </c>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+    </row>
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A33" s="33">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J33" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="33">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="M33" s="28"/>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="33">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="R33" s="28"/>
+      <c r="S33" s="45">
+        <v>0</v>
+      </c>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+    </row>
+    <row r="34" spans="1:24" s="1" customFormat="1" ht="15.6">
+      <c r="A34" s="33">
+        <v>23</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="D34" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H34" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I34" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J34" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="33">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="33">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="45">
+        <v>0</v>
+      </c>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+    </row>
+    <row r="35" spans="1:24" s="1" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A35" s="33">
+        <v>24</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="8"/>
+        <v>3456</v>
+      </c>
+      <c r="H35" s="33">
+        <f t="shared" si="9"/>
+        <v>450.7674802116203</v>
+      </c>
+      <c r="I35" s="33">
+        <f t="shared" si="10"/>
+        <v>1732.4064742500254</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="11"/>
+        <v>0.51748021162029545</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="33">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="33">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="R35" s="28"/>
+      <c r="S35" s="46">
+        <v>0</v>
+      </c>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+    </row>
+    <row r="36" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="24">
+        <f>SUM(D12:D35)</f>
+        <v>-864000</v>
+      </c>
+      <c r="E36" s="24">
+        <f>SUM(E12:E35)</f>
+        <v>867456</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="30">
+        <f>MIN(G12:G35)</f>
+        <v>-172800</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+    </row>
+    <row r="37" spans="1:24" s="1" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35">
+        <f>AVERAGE(N12:N35)</f>
+        <v>10</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+    </row>
+    <row r="38" spans="1:24" s="1" customFormat="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+    </row>
+    <row r="39" spans="1:24" s="1" customFormat="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+    </row>
+    <row r="41" spans="1:24" s="1" customFormat="1">
+      <c r="A41" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+    </row>
+    <row r="42" spans="1:24" s="1" customFormat="1">
+      <c r="A42" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+    </row>
+    <row r="43" spans="1:24" s="1" customFormat="1">
+      <c r="A43" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+    </row>
+    <row r="44" spans="1:24" s="1" customFormat="1">
+      <c r="A44" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+    </row>
+    <row r="45" spans="1:24" s="1" customFormat="1">
+      <c r="A45" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+    </row>
+    <row r="46" spans="1:24" s="1" customFormat="1">
+      <c r="A46" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+    </row>
+    <row r="47" spans="1:24" s="1" customFormat="1">
+      <c r="A47" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+    </row>
+    <row r="48" spans="1:24" s="1" customFormat="1">
+      <c r="A48" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+    </row>
+    <row r="49" spans="1:24" s="1" customFormat="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="Q9:U9"/>
